--- a/Element Profiles/IDS Keypad-Element_Profile.xlsx
+++ b/Element Profiles/IDS Keypad-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BED7017-9575-7146-BFFC-40E02A5953B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A614C-37AE-0D4D-955D-8B71F5D95697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1760" windowWidth="34400" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="143">
   <si>
     <t>Export date: Apr 04, 2023</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Accessory 1</t>
   </si>
   <si>
-    <t>1-Year Alarm Console License</t>
-  </si>
-  <si>
     <t>Accessory 2</t>
   </si>
   <si>
@@ -218,34 +215,13 @@
     <t>Accessory1</t>
   </si>
   <si>
-    <t>LIC-BC-1Y</t>
-  </si>
-  <si>
     <t>Accessory2</t>
-  </si>
-  <si>
-    <t>3-Year Alarm Console License</t>
-  </si>
-  <si>
-    <t>LIC-BC-3Y</t>
   </si>
   <si>
     <t>Accessory3</t>
   </si>
   <si>
-    <t>5-Year Alarm Console License</t>
-  </si>
-  <si>
-    <t>LIC-BC-5Y</t>
-  </si>
-  <si>
     <t>Accessory4</t>
-  </si>
-  <si>
-    <t>10-Year Alarm Console License</t>
-  </si>
-  <si>
-    <t>LIC-BC-10Y</t>
   </si>
   <si>
     <t>BC82 - Alarm Console</t>
@@ -408,6 +384,84 @@
   </si>
   <si>
     <t>Accessory20</t>
+  </si>
+  <si>
+    <t>1-Year Basic Alarm License</t>
+  </si>
+  <si>
+    <t>3-Year Basic Alarm License</t>
+  </si>
+  <si>
+    <t>5-Year Basic Alarm License</t>
+  </si>
+  <si>
+    <t>10-Year Basic Alarm License</t>
+  </si>
+  <si>
+    <t>LIC-BB-1Y</t>
+  </si>
+  <si>
+    <t>LIC-BB-3Y</t>
+  </si>
+  <si>
+    <t>LIC-BB-5Y</t>
+  </si>
+  <si>
+    <t>LIC-BB-10Y</t>
+  </si>
+  <si>
+    <t>1-Year Premium Alarm License</t>
+  </si>
+  <si>
+    <t>3-Year Premium Alarm License</t>
+  </si>
+  <si>
+    <t>5-Year Premium Alarm License</t>
+  </si>
+  <si>
+    <t>10-Year Premium Alarm License</t>
+  </si>
+  <si>
+    <t>LIC-BV-1Y</t>
+  </si>
+  <si>
+    <t>LIC-BV-3Y</t>
+  </si>
+  <si>
+    <t>LIC-BV-5Y</t>
+  </si>
+  <si>
+    <t>LIC-BV-10Y</t>
+  </si>
+  <si>
+    <t>Accessory21</t>
+  </si>
+  <si>
+    <t>Accessory22</t>
+  </si>
+  <si>
+    <t>Accessory23</t>
+  </si>
+  <si>
+    <t>Accessory24</t>
+  </si>
+  <si>
+    <t>BK11 Alarm Keypad</t>
+  </si>
+  <si>
+    <t>BK21 Alarm Keypad + Wireless Hub</t>
+  </si>
+  <si>
+    <t>BK11-HW</t>
+  </si>
+  <si>
+    <t>BK21-HW</t>
+  </si>
+  <si>
+    <t>BK11 Product Page</t>
+  </si>
+  <si>
+    <t>BK21 Product Page</t>
   </si>
 </sst>
 </file>
@@ -606,18 +660,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -929,7 +983,7 @@
   <dimension ref="C1:SJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -945,1015 +999,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12"/>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12"/>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12"/>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
-      <c r="GM1" s="12"/>
-      <c r="GN1" s="12"/>
-      <c r="GO1" s="12"/>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
-      <c r="GT1" s="12"/>
-      <c r="GU1" s="12"/>
-      <c r="GV1" s="12"/>
-      <c r="GW1" s="12"/>
-      <c r="GX1" s="12"/>
-      <c r="GY1" s="12"/>
-      <c r="GZ1" s="12"/>
-      <c r="HA1" s="12"/>
-      <c r="HB1" s="12"/>
-      <c r="HC1" s="12"/>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="12"/>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12"/>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12"/>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
-      <c r="HV1" s="12"/>
-      <c r="HW1" s="12"/>
-      <c r="HX1" s="12"/>
-      <c r="HY1" s="12"/>
-      <c r="HZ1" s="12"/>
-      <c r="IA1" s="12"/>
-      <c r="IB1" s="12"/>
-      <c r="IC1" s="12"/>
-      <c r="ID1" s="12"/>
-      <c r="IE1" s="12"/>
-      <c r="IF1" s="12"/>
-      <c r="IG1" s="12"/>
-      <c r="IH1" s="12"/>
-      <c r="II1" s="12"/>
-      <c r="IJ1" s="12"/>
-      <c r="IK1" s="12"/>
-      <c r="IL1" s="12"/>
-      <c r="IM1" s="12"/>
-      <c r="IN1" s="12"/>
-      <c r="IO1" s="12"/>
-      <c r="IP1" s="12"/>
-      <c r="IQ1" s="12"/>
-      <c r="IR1" s="12"/>
-      <c r="IS1" s="12"/>
-      <c r="IT1" s="12"/>
-      <c r="IU1" s="12"/>
-      <c r="IV1" s="12"/>
-      <c r="IW1" s="12"/>
-      <c r="IX1" s="12"/>
-      <c r="IY1" s="12"/>
-      <c r="IZ1" s="12"/>
-      <c r="JA1" s="12"/>
-      <c r="JB1" s="12"/>
-      <c r="JC1" s="12"/>
-      <c r="JD1" s="12"/>
-      <c r="JE1" s="12"/>
-      <c r="JF1" s="12"/>
-      <c r="JG1" s="12"/>
-      <c r="JH1" s="12"/>
-      <c r="JI1" s="12"/>
-      <c r="JJ1" s="12"/>
-      <c r="JK1" s="12"/>
-      <c r="JL1" s="12"/>
-      <c r="JM1" s="12"/>
-      <c r="JN1" s="12"/>
-      <c r="JO1" s="12"/>
-      <c r="JP1" s="12"/>
-      <c r="JQ1" s="12"/>
-      <c r="JR1" s="12"/>
-      <c r="JS1" s="12"/>
-      <c r="JT1" s="12"/>
-      <c r="JU1" s="12"/>
-      <c r="JV1" s="12"/>
-      <c r="JW1" s="12"/>
-      <c r="JX1" s="12"/>
-      <c r="JY1" s="12"/>
-      <c r="JZ1" s="12"/>
-      <c r="KA1" s="12"/>
-      <c r="KB1" s="12"/>
-      <c r="KC1" s="12"/>
-      <c r="KD1" s="12"/>
-      <c r="KE1" s="12"/>
-      <c r="KF1" s="12"/>
-      <c r="KG1" s="12"/>
-      <c r="KH1" s="12"/>
-      <c r="KI1" s="12"/>
-      <c r="KJ1" s="12"/>
-      <c r="KK1" s="12"/>
-      <c r="KL1" s="12"/>
-      <c r="KM1" s="12"/>
-      <c r="KN1" s="12"/>
-      <c r="KO1" s="12"/>
-      <c r="KP1" s="12"/>
-      <c r="KQ1" s="12"/>
-      <c r="KR1" s="12"/>
-      <c r="KS1" s="12"/>
-      <c r="KT1" s="12"/>
-      <c r="KU1" s="12"/>
-      <c r="KV1" s="12"/>
-      <c r="KW1" s="12"/>
-      <c r="KX1" s="12"/>
-      <c r="KY1" s="12"/>
-      <c r="KZ1" s="12"/>
-      <c r="LA1" s="12"/>
-      <c r="LB1" s="12"/>
-      <c r="LC1" s="12"/>
-      <c r="LD1" s="12"/>
-      <c r="LE1" s="12"/>
-      <c r="LF1" s="12"/>
-      <c r="LG1" s="12"/>
-      <c r="LH1" s="12"/>
-      <c r="LI1" s="12"/>
-      <c r="LJ1" s="12"/>
-      <c r="LK1" s="12"/>
-      <c r="LL1" s="12"/>
-      <c r="LM1" s="12"/>
-      <c r="LN1" s="12"/>
-      <c r="LO1" s="12"/>
-      <c r="LP1" s="12"/>
-      <c r="LQ1" s="12"/>
-      <c r="LR1" s="12"/>
-      <c r="LS1" s="12"/>
-      <c r="LT1" s="12"/>
-      <c r="LU1" s="12"/>
-      <c r="LV1" s="12"/>
-      <c r="LW1" s="12"/>
-      <c r="LX1" s="12"/>
-      <c r="LY1" s="12"/>
-      <c r="LZ1" s="12"/>
-      <c r="MA1" s="12"/>
-      <c r="MB1" s="12"/>
-      <c r="MC1" s="12"/>
-      <c r="MD1" s="12"/>
-      <c r="ME1" s="12"/>
-      <c r="MF1" s="12"/>
-      <c r="MG1" s="12"/>
-      <c r="MH1" s="12"/>
-      <c r="MI1" s="12"/>
-      <c r="MJ1" s="12"/>
-      <c r="MK1" s="12"/>
-      <c r="ML1" s="12"/>
-      <c r="MM1" s="12"/>
-      <c r="MN1" s="12"/>
-      <c r="MO1" s="12"/>
-      <c r="MP1" s="12"/>
-      <c r="MQ1" s="12"/>
-      <c r="MR1" s="12"/>
-      <c r="MS1" s="12"/>
-      <c r="MT1" s="12"/>
-      <c r="MU1" s="12"/>
-      <c r="MV1" s="12"/>
-      <c r="MW1" s="12"/>
-      <c r="MX1" s="12"/>
-      <c r="MY1" s="12"/>
-      <c r="MZ1" s="12"/>
-      <c r="NA1" s="12"/>
-      <c r="NB1" s="12"/>
-      <c r="NC1" s="12"/>
-      <c r="ND1" s="12"/>
-      <c r="NE1" s="12"/>
-      <c r="NF1" s="12"/>
-      <c r="NG1" s="12"/>
-      <c r="NH1" s="12"/>
-      <c r="NI1" s="12"/>
-      <c r="NJ1" s="12"/>
-      <c r="NK1" s="12"/>
-      <c r="NL1" s="12"/>
-      <c r="NM1" s="12"/>
-      <c r="NN1" s="12"/>
-      <c r="NO1" s="12"/>
-      <c r="NP1" s="12"/>
-      <c r="NQ1" s="12"/>
-      <c r="NR1" s="12"/>
-      <c r="NS1" s="12"/>
-      <c r="NT1" s="12"/>
-      <c r="NU1" s="12"/>
-      <c r="NV1" s="12"/>
-      <c r="NW1" s="12"/>
-      <c r="NX1" s="12"/>
-      <c r="NY1" s="12"/>
-      <c r="NZ1" s="12"/>
-      <c r="OA1" s="12"/>
-      <c r="OB1" s="12"/>
-      <c r="OC1" s="12"/>
-      <c r="OD1" s="12"/>
-      <c r="OE1" s="12"/>
-      <c r="OF1" s="12"/>
-      <c r="OG1" s="12"/>
-      <c r="OH1" s="12"/>
-      <c r="OI1" s="12"/>
-      <c r="OJ1" s="12"/>
-      <c r="OK1" s="12"/>
-      <c r="OL1" s="12"/>
-      <c r="OM1" s="12"/>
-      <c r="ON1" s="12"/>
-      <c r="OO1" s="12"/>
-      <c r="OP1" s="12"/>
-      <c r="OQ1" s="12"/>
-      <c r="OR1" s="12"/>
-      <c r="OS1" s="12"/>
-      <c r="OT1" s="12"/>
-      <c r="OU1" s="12"/>
-      <c r="OV1" s="12"/>
-      <c r="OW1" s="12"/>
-      <c r="OX1" s="12"/>
-      <c r="OY1" s="12"/>
-      <c r="OZ1" s="12"/>
-      <c r="PA1" s="12"/>
-      <c r="PB1" s="12"/>
-      <c r="PC1" s="12"/>
-      <c r="PD1" s="12"/>
-      <c r="PE1" s="12"/>
-      <c r="PF1" s="12"/>
-      <c r="PG1" s="12"/>
-      <c r="PH1" s="12"/>
-      <c r="PI1" s="12"/>
-      <c r="PJ1" s="12"/>
-      <c r="PK1" s="12"/>
-      <c r="PL1" s="12"/>
-      <c r="PM1" s="12"/>
-      <c r="PN1" s="12"/>
-      <c r="PO1" s="12"/>
-      <c r="PP1" s="12"/>
-      <c r="PQ1" s="12"/>
-      <c r="PR1" s="12"/>
-      <c r="PS1" s="12"/>
-      <c r="PT1" s="12"/>
-      <c r="PU1" s="12"/>
-      <c r="PV1" s="12"/>
-      <c r="PW1" s="12"/>
-      <c r="PX1" s="12"/>
-      <c r="PY1" s="12"/>
-      <c r="PZ1" s="12"/>
-      <c r="QA1" s="12"/>
-      <c r="QB1" s="12"/>
-      <c r="QC1" s="12"/>
-      <c r="QD1" s="12"/>
-      <c r="QE1" s="12"/>
-      <c r="QF1" s="12"/>
-      <c r="QG1" s="12"/>
-      <c r="QH1" s="12"/>
-      <c r="QI1" s="12"/>
-      <c r="QJ1" s="12"/>
-      <c r="QK1" s="12"/>
-      <c r="QL1" s="12"/>
-      <c r="QM1" s="12"/>
-      <c r="QN1" s="12"/>
-      <c r="QO1" s="12"/>
-      <c r="QP1" s="12"/>
-      <c r="QQ1" s="12"/>
-      <c r="QR1" s="12"/>
-      <c r="QS1" s="12"/>
-      <c r="QT1" s="12"/>
-      <c r="QU1" s="12"/>
-      <c r="QV1" s="12"/>
-      <c r="QW1" s="12"/>
-      <c r="QX1" s="12"/>
-      <c r="QY1" s="12"/>
-      <c r="QZ1" s="12"/>
-      <c r="RA1" s="12"/>
-      <c r="RB1" s="12"/>
-      <c r="RC1" s="12"/>
-      <c r="RD1" s="12"/>
-      <c r="RE1" s="12"/>
-      <c r="RF1" s="12"/>
-      <c r="RG1" s="12"/>
-      <c r="RH1" s="12"/>
-      <c r="RI1" s="12"/>
-      <c r="RJ1" s="12"/>
-      <c r="RK1" s="12"/>
-      <c r="RL1" s="12"/>
-      <c r="RM1" s="12"/>
-      <c r="RN1" s="12"/>
-      <c r="RO1" s="12"/>
-      <c r="RP1" s="12"/>
-      <c r="RQ1" s="12"/>
-      <c r="RR1" s="12"/>
-      <c r="RS1" s="12"/>
-      <c r="RT1" s="12"/>
-      <c r="RU1" s="12"/>
-      <c r="RV1" s="12"/>
-      <c r="RW1" s="12"/>
-      <c r="RX1" s="12"/>
-      <c r="RY1" s="12"/>
-      <c r="RZ1" s="12"/>
-      <c r="SA1" s="12"/>
-      <c r="SB1" s="12"/>
-      <c r="SC1" s="12"/>
-      <c r="SD1" s="12"/>
-      <c r="SE1" s="12"/>
-      <c r="SF1" s="12"/>
-      <c r="SG1" s="12"/>
-      <c r="SH1" s="12"/>
-      <c r="SI1" s="12"/>
-      <c r="SJ1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
+      <c r="CJ1" s="15"/>
+      <c r="CK1" s="15"/>
+      <c r="CL1" s="15"/>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="15"/>
+      <c r="CO1" s="15"/>
+      <c r="CP1" s="15"/>
+      <c r="CQ1" s="15"/>
+      <c r="CR1" s="15"/>
+      <c r="CS1" s="15"/>
+      <c r="CT1" s="15"/>
+      <c r="CU1" s="15"/>
+      <c r="CV1" s="15"/>
+      <c r="CW1" s="15"/>
+      <c r="CX1" s="15"/>
+      <c r="CY1" s="15"/>
+      <c r="CZ1" s="15"/>
+      <c r="DA1" s="15"/>
+      <c r="DB1" s="15"/>
+      <c r="DC1" s="15"/>
+      <c r="DD1" s="15"/>
+      <c r="DE1" s="15"/>
+      <c r="DF1" s="15"/>
+      <c r="DG1" s="15"/>
+      <c r="DH1" s="15"/>
+      <c r="DI1" s="15"/>
+      <c r="DJ1" s="15"/>
+      <c r="DK1" s="15"/>
+      <c r="DL1" s="15"/>
+      <c r="DM1" s="15"/>
+      <c r="DN1" s="15"/>
+      <c r="DO1" s="15"/>
+      <c r="DP1" s="15"/>
+      <c r="DQ1" s="15"/>
+      <c r="DR1" s="15"/>
+      <c r="DS1" s="15"/>
+      <c r="DT1" s="15"/>
+      <c r="DU1" s="15"/>
+      <c r="DV1" s="15"/>
+      <c r="DW1" s="15"/>
+      <c r="DX1" s="15"/>
+      <c r="DY1" s="15"/>
+      <c r="DZ1" s="15"/>
+      <c r="EA1" s="15"/>
+      <c r="EB1" s="15"/>
+      <c r="EC1" s="15"/>
+      <c r="ED1" s="15"/>
+      <c r="EE1" s="15"/>
+      <c r="EF1" s="15"/>
+      <c r="EG1" s="15"/>
+      <c r="EH1" s="15"/>
+      <c r="EI1" s="15"/>
+      <c r="EJ1" s="15"/>
+      <c r="EK1" s="15"/>
+      <c r="EL1" s="15"/>
+      <c r="EM1" s="15"/>
+      <c r="EN1" s="15"/>
+      <c r="EO1" s="15"/>
+      <c r="EP1" s="15"/>
+      <c r="EQ1" s="15"/>
+      <c r="ER1" s="15"/>
+      <c r="ES1" s="15"/>
+      <c r="ET1" s="15"/>
+      <c r="EU1" s="15"/>
+      <c r="EV1" s="15"/>
+      <c r="EW1" s="15"/>
+      <c r="EX1" s="15"/>
+      <c r="EY1" s="15"/>
+      <c r="EZ1" s="15"/>
+      <c r="FA1" s="15"/>
+      <c r="FB1" s="15"/>
+      <c r="FC1" s="15"/>
+      <c r="FD1" s="15"/>
+      <c r="FE1" s="15"/>
+      <c r="FF1" s="15"/>
+      <c r="FG1" s="15"/>
+      <c r="FH1" s="15"/>
+      <c r="FI1" s="15"/>
+      <c r="FJ1" s="15"/>
+      <c r="FK1" s="15"/>
+      <c r="FL1" s="15"/>
+      <c r="FM1" s="15"/>
+      <c r="FN1" s="15"/>
+      <c r="FO1" s="15"/>
+      <c r="FP1" s="15"/>
+      <c r="FQ1" s="15"/>
+      <c r="FR1" s="15"/>
+      <c r="FS1" s="15"/>
+      <c r="FT1" s="15"/>
+      <c r="FU1" s="15"/>
+      <c r="FV1" s="15"/>
+      <c r="FW1" s="15"/>
+      <c r="FX1" s="15"/>
+      <c r="FY1" s="15"/>
+      <c r="FZ1" s="15"/>
+      <c r="GA1" s="15"/>
+      <c r="GB1" s="15"/>
+      <c r="GC1" s="15"/>
+      <c r="GD1" s="15"/>
+      <c r="GE1" s="15"/>
+      <c r="GF1" s="15"/>
+      <c r="GG1" s="15"/>
+      <c r="GH1" s="15"/>
+      <c r="GI1" s="15"/>
+      <c r="GJ1" s="15"/>
+      <c r="GK1" s="15"/>
+      <c r="GL1" s="15"/>
+      <c r="GM1" s="15"/>
+      <c r="GN1" s="15"/>
+      <c r="GO1" s="15"/>
+      <c r="GP1" s="15"/>
+      <c r="GQ1" s="15"/>
+      <c r="GR1" s="15"/>
+      <c r="GS1" s="15"/>
+      <c r="GT1" s="15"/>
+      <c r="GU1" s="15"/>
+      <c r="GV1" s="15"/>
+      <c r="GW1" s="15"/>
+      <c r="GX1" s="15"/>
+      <c r="GY1" s="15"/>
+      <c r="GZ1" s="15"/>
+      <c r="HA1" s="15"/>
+      <c r="HB1" s="15"/>
+      <c r="HC1" s="15"/>
+      <c r="HD1" s="15"/>
+      <c r="HE1" s="15"/>
+      <c r="HF1" s="15"/>
+      <c r="HG1" s="15"/>
+      <c r="HH1" s="15"/>
+      <c r="HI1" s="15"/>
+      <c r="HJ1" s="15"/>
+      <c r="HK1" s="15"/>
+      <c r="HL1" s="15"/>
+      <c r="HM1" s="15"/>
+      <c r="HN1" s="15"/>
+      <c r="HO1" s="15"/>
+      <c r="HP1" s="15"/>
+      <c r="HQ1" s="15"/>
+      <c r="HR1" s="15"/>
+      <c r="HS1" s="15"/>
+      <c r="HT1" s="15"/>
+      <c r="HU1" s="15"/>
+      <c r="HV1" s="15"/>
+      <c r="HW1" s="15"/>
+      <c r="HX1" s="15"/>
+      <c r="HY1" s="15"/>
+      <c r="HZ1" s="15"/>
+      <c r="IA1" s="15"/>
+      <c r="IB1" s="15"/>
+      <c r="IC1" s="15"/>
+      <c r="ID1" s="15"/>
+      <c r="IE1" s="15"/>
+      <c r="IF1" s="15"/>
+      <c r="IG1" s="15"/>
+      <c r="IH1" s="15"/>
+      <c r="II1" s="15"/>
+      <c r="IJ1" s="15"/>
+      <c r="IK1" s="15"/>
+      <c r="IL1" s="15"/>
+      <c r="IM1" s="15"/>
+      <c r="IN1" s="15"/>
+      <c r="IO1" s="15"/>
+      <c r="IP1" s="15"/>
+      <c r="IQ1" s="15"/>
+      <c r="IR1" s="15"/>
+      <c r="IS1" s="15"/>
+      <c r="IT1" s="15"/>
+      <c r="IU1" s="15"/>
+      <c r="IV1" s="15"/>
+      <c r="IW1" s="15"/>
+      <c r="IX1" s="15"/>
+      <c r="IY1" s="15"/>
+      <c r="IZ1" s="15"/>
+      <c r="JA1" s="15"/>
+      <c r="JB1" s="15"/>
+      <c r="JC1" s="15"/>
+      <c r="JD1" s="15"/>
+      <c r="JE1" s="15"/>
+      <c r="JF1" s="15"/>
+      <c r="JG1" s="15"/>
+      <c r="JH1" s="15"/>
+      <c r="JI1" s="15"/>
+      <c r="JJ1" s="15"/>
+      <c r="JK1" s="15"/>
+      <c r="JL1" s="15"/>
+      <c r="JM1" s="15"/>
+      <c r="JN1" s="15"/>
+      <c r="JO1" s="15"/>
+      <c r="JP1" s="15"/>
+      <c r="JQ1" s="15"/>
+      <c r="JR1" s="15"/>
+      <c r="JS1" s="15"/>
+      <c r="JT1" s="15"/>
+      <c r="JU1" s="15"/>
+      <c r="JV1" s="15"/>
+      <c r="JW1" s="15"/>
+      <c r="JX1" s="15"/>
+      <c r="JY1" s="15"/>
+      <c r="JZ1" s="15"/>
+      <c r="KA1" s="15"/>
+      <c r="KB1" s="15"/>
+      <c r="KC1" s="15"/>
+      <c r="KD1" s="15"/>
+      <c r="KE1" s="15"/>
+      <c r="KF1" s="15"/>
+      <c r="KG1" s="15"/>
+      <c r="KH1" s="15"/>
+      <c r="KI1" s="15"/>
+      <c r="KJ1" s="15"/>
+      <c r="KK1" s="15"/>
+      <c r="KL1" s="15"/>
+      <c r="KM1" s="15"/>
+      <c r="KN1" s="15"/>
+      <c r="KO1" s="15"/>
+      <c r="KP1" s="15"/>
+      <c r="KQ1" s="15"/>
+      <c r="KR1" s="15"/>
+      <c r="KS1" s="15"/>
+      <c r="KT1" s="15"/>
+      <c r="KU1" s="15"/>
+      <c r="KV1" s="15"/>
+      <c r="KW1" s="15"/>
+      <c r="KX1" s="15"/>
+      <c r="KY1" s="15"/>
+      <c r="KZ1" s="15"/>
+      <c r="LA1" s="15"/>
+      <c r="LB1" s="15"/>
+      <c r="LC1" s="15"/>
+      <c r="LD1" s="15"/>
+      <c r="LE1" s="15"/>
+      <c r="LF1" s="15"/>
+      <c r="LG1" s="15"/>
+      <c r="LH1" s="15"/>
+      <c r="LI1" s="15"/>
+      <c r="LJ1" s="15"/>
+      <c r="LK1" s="15"/>
+      <c r="LL1" s="15"/>
+      <c r="LM1" s="15"/>
+      <c r="LN1" s="15"/>
+      <c r="LO1" s="15"/>
+      <c r="LP1" s="15"/>
+      <c r="LQ1" s="15"/>
+      <c r="LR1" s="15"/>
+      <c r="LS1" s="15"/>
+      <c r="LT1" s="15"/>
+      <c r="LU1" s="15"/>
+      <c r="LV1" s="15"/>
+      <c r="LW1" s="15"/>
+      <c r="LX1" s="15"/>
+      <c r="LY1" s="15"/>
+      <c r="LZ1" s="15"/>
+      <c r="MA1" s="15"/>
+      <c r="MB1" s="15"/>
+      <c r="MC1" s="15"/>
+      <c r="MD1" s="15"/>
+      <c r="ME1" s="15"/>
+      <c r="MF1" s="15"/>
+      <c r="MG1" s="15"/>
+      <c r="MH1" s="15"/>
+      <c r="MI1" s="15"/>
+      <c r="MJ1" s="15"/>
+      <c r="MK1" s="15"/>
+      <c r="ML1" s="15"/>
+      <c r="MM1" s="15"/>
+      <c r="MN1" s="15"/>
+      <c r="MO1" s="15"/>
+      <c r="MP1" s="15"/>
+      <c r="MQ1" s="15"/>
+      <c r="MR1" s="15"/>
+      <c r="MS1" s="15"/>
+      <c r="MT1" s="15"/>
+      <c r="MU1" s="15"/>
+      <c r="MV1" s="15"/>
+      <c r="MW1" s="15"/>
+      <c r="MX1" s="15"/>
+      <c r="MY1" s="15"/>
+      <c r="MZ1" s="15"/>
+      <c r="NA1" s="15"/>
+      <c r="NB1" s="15"/>
+      <c r="NC1" s="15"/>
+      <c r="ND1" s="15"/>
+      <c r="NE1" s="15"/>
+      <c r="NF1" s="15"/>
+      <c r="NG1" s="15"/>
+      <c r="NH1" s="15"/>
+      <c r="NI1" s="15"/>
+      <c r="NJ1" s="15"/>
+      <c r="NK1" s="15"/>
+      <c r="NL1" s="15"/>
+      <c r="NM1" s="15"/>
+      <c r="NN1" s="15"/>
+      <c r="NO1" s="15"/>
+      <c r="NP1" s="15"/>
+      <c r="NQ1" s="15"/>
+      <c r="NR1" s="15"/>
+      <c r="NS1" s="15"/>
+      <c r="NT1" s="15"/>
+      <c r="NU1" s="15"/>
+      <c r="NV1" s="15"/>
+      <c r="NW1" s="15"/>
+      <c r="NX1" s="15"/>
+      <c r="NY1" s="15"/>
+      <c r="NZ1" s="15"/>
+      <c r="OA1" s="15"/>
+      <c r="OB1" s="15"/>
+      <c r="OC1" s="15"/>
+      <c r="OD1" s="15"/>
+      <c r="OE1" s="15"/>
+      <c r="OF1" s="15"/>
+      <c r="OG1" s="15"/>
+      <c r="OH1" s="15"/>
+      <c r="OI1" s="15"/>
+      <c r="OJ1" s="15"/>
+      <c r="OK1" s="15"/>
+      <c r="OL1" s="15"/>
+      <c r="OM1" s="15"/>
+      <c r="ON1" s="15"/>
+      <c r="OO1" s="15"/>
+      <c r="OP1" s="15"/>
+      <c r="OQ1" s="15"/>
+      <c r="OR1" s="15"/>
+      <c r="OS1" s="15"/>
+      <c r="OT1" s="15"/>
+      <c r="OU1" s="15"/>
+      <c r="OV1" s="15"/>
+      <c r="OW1" s="15"/>
+      <c r="OX1" s="15"/>
+      <c r="OY1" s="15"/>
+      <c r="OZ1" s="15"/>
+      <c r="PA1" s="15"/>
+      <c r="PB1" s="15"/>
+      <c r="PC1" s="15"/>
+      <c r="PD1" s="15"/>
+      <c r="PE1" s="15"/>
+      <c r="PF1" s="15"/>
+      <c r="PG1" s="15"/>
+      <c r="PH1" s="15"/>
+      <c r="PI1" s="15"/>
+      <c r="PJ1" s="15"/>
+      <c r="PK1" s="15"/>
+      <c r="PL1" s="15"/>
+      <c r="PM1" s="15"/>
+      <c r="PN1" s="15"/>
+      <c r="PO1" s="15"/>
+      <c r="PP1" s="15"/>
+      <c r="PQ1" s="15"/>
+      <c r="PR1" s="15"/>
+      <c r="PS1" s="15"/>
+      <c r="PT1" s="15"/>
+      <c r="PU1" s="15"/>
+      <c r="PV1" s="15"/>
+      <c r="PW1" s="15"/>
+      <c r="PX1" s="15"/>
+      <c r="PY1" s="15"/>
+      <c r="PZ1" s="15"/>
+      <c r="QA1" s="15"/>
+      <c r="QB1" s="15"/>
+      <c r="QC1" s="15"/>
+      <c r="QD1" s="15"/>
+      <c r="QE1" s="15"/>
+      <c r="QF1" s="15"/>
+      <c r="QG1" s="15"/>
+      <c r="QH1" s="15"/>
+      <c r="QI1" s="15"/>
+      <c r="QJ1" s="15"/>
+      <c r="QK1" s="15"/>
+      <c r="QL1" s="15"/>
+      <c r="QM1" s="15"/>
+      <c r="QN1" s="15"/>
+      <c r="QO1" s="15"/>
+      <c r="QP1" s="15"/>
+      <c r="QQ1" s="15"/>
+      <c r="QR1" s="15"/>
+      <c r="QS1" s="15"/>
+      <c r="QT1" s="15"/>
+      <c r="QU1" s="15"/>
+      <c r="QV1" s="15"/>
+      <c r="QW1" s="15"/>
+      <c r="QX1" s="15"/>
+      <c r="QY1" s="15"/>
+      <c r="QZ1" s="15"/>
+      <c r="RA1" s="15"/>
+      <c r="RB1" s="15"/>
+      <c r="RC1" s="15"/>
+      <c r="RD1" s="15"/>
+      <c r="RE1" s="15"/>
+      <c r="RF1" s="15"/>
+      <c r="RG1" s="15"/>
+      <c r="RH1" s="15"/>
+      <c r="RI1" s="15"/>
+      <c r="RJ1" s="15"/>
+      <c r="RK1" s="15"/>
+      <c r="RL1" s="15"/>
+      <c r="RM1" s="15"/>
+      <c r="RN1" s="15"/>
+      <c r="RO1" s="15"/>
+      <c r="RP1" s="15"/>
+      <c r="RQ1" s="15"/>
+      <c r="RR1" s="15"/>
+      <c r="RS1" s="15"/>
+      <c r="RT1" s="15"/>
+      <c r="RU1" s="15"/>
+      <c r="RV1" s="15"/>
+      <c r="RW1" s="15"/>
+      <c r="RX1" s="15"/>
+      <c r="RY1" s="15"/>
+      <c r="RZ1" s="15"/>
+      <c r="SA1" s="15"/>
+      <c r="SB1" s="15"/>
+      <c r="SC1" s="15"/>
+      <c r="SD1" s="15"/>
+      <c r="SE1" s="15"/>
+      <c r="SF1" s="15"/>
+      <c r="SG1" s="15"/>
+      <c r="SH1" s="15"/>
+      <c r="SI1" s="15"/>
+      <c r="SJ1" s="16"/>
     </row>
-    <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:504" ht="200" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="12"/>
-      <c r="CA2" s="12"/>
-      <c r="CB2" s="12"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="12"/>
-      <c r="DN2" s="12"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="12"/>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12"/>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12"/>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12"/>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="12"/>
-      <c r="FA2" s="12"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12"/>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12"/>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12"/>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
-      <c r="FP2" s="12"/>
-      <c r="FQ2" s="12"/>
-      <c r="FR2" s="12"/>
-      <c r="FS2" s="12"/>
-      <c r="FT2" s="12"/>
-      <c r="FU2" s="12"/>
-      <c r="FV2" s="12"/>
-      <c r="FW2" s="12"/>
-      <c r="FX2" s="12"/>
-      <c r="FY2" s="12"/>
-      <c r="FZ2" s="12"/>
-      <c r="GA2" s="12"/>
-      <c r="GB2" s="12"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="12"/>
-      <c r="GE2" s="12"/>
-      <c r="GF2" s="12"/>
-      <c r="GG2" s="12"/>
-      <c r="GH2" s="12"/>
-      <c r="GI2" s="12"/>
-      <c r="GJ2" s="12"/>
-      <c r="GK2" s="12"/>
-      <c r="GL2" s="12"/>
-      <c r="GM2" s="12"/>
-      <c r="GN2" s="12"/>
-      <c r="GO2" s="12"/>
-      <c r="GP2" s="12"/>
-      <c r="GQ2" s="12"/>
-      <c r="GR2" s="12"/>
-      <c r="GS2" s="12"/>
-      <c r="GT2" s="12"/>
-      <c r="GU2" s="12"/>
-      <c r="GV2" s="12"/>
-      <c r="GW2" s="12"/>
-      <c r="GX2" s="12"/>
-      <c r="GY2" s="12"/>
-      <c r="GZ2" s="12"/>
-      <c r="HA2" s="12"/>
-      <c r="HB2" s="12"/>
-      <c r="HC2" s="12"/>
-      <c r="HD2" s="12"/>
-      <c r="HE2" s="12"/>
-      <c r="HF2" s="12"/>
-      <c r="HG2" s="12"/>
-      <c r="HH2" s="12"/>
-      <c r="HI2" s="12"/>
-      <c r="HJ2" s="12"/>
-      <c r="HK2" s="12"/>
-      <c r="HL2" s="12"/>
-      <c r="HM2" s="12"/>
-      <c r="HN2" s="12"/>
-      <c r="HO2" s="12"/>
-      <c r="HP2" s="12"/>
-      <c r="HQ2" s="12"/>
-      <c r="HR2" s="12"/>
-      <c r="HS2" s="12"/>
-      <c r="HT2" s="12"/>
-      <c r="HU2" s="12"/>
-      <c r="HV2" s="12"/>
-      <c r="HW2" s="12"/>
-      <c r="HX2" s="12"/>
-      <c r="HY2" s="12"/>
-      <c r="HZ2" s="12"/>
-      <c r="IA2" s="12"/>
-      <c r="IB2" s="12"/>
-      <c r="IC2" s="12"/>
-      <c r="ID2" s="12"/>
-      <c r="IE2" s="12"/>
-      <c r="IF2" s="12"/>
-      <c r="IG2" s="12"/>
-      <c r="IH2" s="12"/>
-      <c r="II2" s="12"/>
-      <c r="IJ2" s="12"/>
-      <c r="IK2" s="12"/>
-      <c r="IL2" s="12"/>
-      <c r="IM2" s="12"/>
-      <c r="IN2" s="12"/>
-      <c r="IO2" s="12"/>
-      <c r="IP2" s="12"/>
-      <c r="IQ2" s="12"/>
-      <c r="IR2" s="12"/>
-      <c r="IS2" s="12"/>
-      <c r="IT2" s="12"/>
-      <c r="IU2" s="12"/>
-      <c r="IV2" s="12"/>
-      <c r="IW2" s="12"/>
-      <c r="IX2" s="12"/>
-      <c r="IY2" s="12"/>
-      <c r="IZ2" s="12"/>
-      <c r="JA2" s="12"/>
-      <c r="JB2" s="12"/>
-      <c r="JC2" s="12"/>
-      <c r="JD2" s="12"/>
-      <c r="JE2" s="12"/>
-      <c r="JF2" s="12"/>
-      <c r="JG2" s="12"/>
-      <c r="JH2" s="12"/>
-      <c r="JI2" s="12"/>
-      <c r="JJ2" s="12"/>
-      <c r="JK2" s="12"/>
-      <c r="JL2" s="12"/>
-      <c r="JM2" s="12"/>
-      <c r="JN2" s="12"/>
-      <c r="JO2" s="12"/>
-      <c r="JP2" s="12"/>
-      <c r="JQ2" s="12"/>
-      <c r="JR2" s="12"/>
-      <c r="JS2" s="12"/>
-      <c r="JT2" s="12"/>
-      <c r="JU2" s="12"/>
-      <c r="JV2" s="12"/>
-      <c r="JW2" s="12"/>
-      <c r="JX2" s="12"/>
-      <c r="JY2" s="12"/>
-      <c r="JZ2" s="12"/>
-      <c r="KA2" s="12"/>
-      <c r="KB2" s="12"/>
-      <c r="KC2" s="12"/>
-      <c r="KD2" s="12"/>
-      <c r="KE2" s="12"/>
-      <c r="KF2" s="12"/>
-      <c r="KG2" s="12"/>
-      <c r="KH2" s="12"/>
-      <c r="KI2" s="12"/>
-      <c r="KJ2" s="12"/>
-      <c r="KK2" s="12"/>
-      <c r="KL2" s="12"/>
-      <c r="KM2" s="12"/>
-      <c r="KN2" s="12"/>
-      <c r="KO2" s="12"/>
-      <c r="KP2" s="12"/>
-      <c r="KQ2" s="12"/>
-      <c r="KR2" s="12"/>
-      <c r="KS2" s="12"/>
-      <c r="KT2" s="12"/>
-      <c r="KU2" s="12"/>
-      <c r="KV2" s="12"/>
-      <c r="KW2" s="12"/>
-      <c r="KX2" s="12"/>
-      <c r="KY2" s="12"/>
-      <c r="KZ2" s="12"/>
-      <c r="LA2" s="12"/>
-      <c r="LB2" s="12"/>
-      <c r="LC2" s="12"/>
-      <c r="LD2" s="12"/>
-      <c r="LE2" s="12"/>
-      <c r="LF2" s="12"/>
-      <c r="LG2" s="12"/>
-      <c r="LH2" s="12"/>
-      <c r="LI2" s="12"/>
-      <c r="LJ2" s="12"/>
-      <c r="LK2" s="12"/>
-      <c r="LL2" s="12"/>
-      <c r="LM2" s="12"/>
-      <c r="LN2" s="12"/>
-      <c r="LO2" s="12"/>
-      <c r="LP2" s="12"/>
-      <c r="LQ2" s="12"/>
-      <c r="LR2" s="12"/>
-      <c r="LS2" s="12"/>
-      <c r="LT2" s="12"/>
-      <c r="LU2" s="12"/>
-      <c r="LV2" s="12"/>
-      <c r="LW2" s="12"/>
-      <c r="LX2" s="12"/>
-      <c r="LY2" s="12"/>
-      <c r="LZ2" s="12"/>
-      <c r="MA2" s="12"/>
-      <c r="MB2" s="12"/>
-      <c r="MC2" s="12"/>
-      <c r="MD2" s="12"/>
-      <c r="ME2" s="12"/>
-      <c r="MF2" s="12"/>
-      <c r="MG2" s="12"/>
-      <c r="MH2" s="12"/>
-      <c r="MI2" s="12"/>
-      <c r="MJ2" s="12"/>
-      <c r="MK2" s="12"/>
-      <c r="ML2" s="12"/>
-      <c r="MM2" s="12"/>
-      <c r="MN2" s="12"/>
-      <c r="MO2" s="12"/>
-      <c r="MP2" s="12"/>
-      <c r="MQ2" s="12"/>
-      <c r="MR2" s="12"/>
-      <c r="MS2" s="12"/>
-      <c r="MT2" s="12"/>
-      <c r="MU2" s="12"/>
-      <c r="MV2" s="12"/>
-      <c r="MW2" s="12"/>
-      <c r="MX2" s="12"/>
-      <c r="MY2" s="12"/>
-      <c r="MZ2" s="12"/>
-      <c r="NA2" s="12"/>
-      <c r="NB2" s="12"/>
-      <c r="NC2" s="12"/>
-      <c r="ND2" s="12"/>
-      <c r="NE2" s="12"/>
-      <c r="NF2" s="12"/>
-      <c r="NG2" s="12"/>
-      <c r="NH2" s="12"/>
-      <c r="NI2" s="12"/>
-      <c r="NJ2" s="12"/>
-      <c r="NK2" s="12"/>
-      <c r="NL2" s="12"/>
-      <c r="NM2" s="12"/>
-      <c r="NN2" s="12"/>
-      <c r="NO2" s="12"/>
-      <c r="NP2" s="12"/>
-      <c r="NQ2" s="12"/>
-      <c r="NR2" s="12"/>
-      <c r="NS2" s="12"/>
-      <c r="NT2" s="12"/>
-      <c r="NU2" s="12"/>
-      <c r="NV2" s="12"/>
-      <c r="NW2" s="12"/>
-      <c r="NX2" s="12"/>
-      <c r="NY2" s="12"/>
-      <c r="NZ2" s="12"/>
-      <c r="OA2" s="12"/>
-      <c r="OB2" s="12"/>
-      <c r="OC2" s="12"/>
-      <c r="OD2" s="12"/>
-      <c r="OE2" s="12"/>
-      <c r="OF2" s="12"/>
-      <c r="OG2" s="12"/>
-      <c r="OH2" s="12"/>
-      <c r="OI2" s="12"/>
-      <c r="OJ2" s="12"/>
-      <c r="OK2" s="12"/>
-      <c r="OL2" s="12"/>
-      <c r="OM2" s="12"/>
-      <c r="ON2" s="12"/>
-      <c r="OO2" s="12"/>
-      <c r="OP2" s="12"/>
-      <c r="OQ2" s="12"/>
-      <c r="OR2" s="12"/>
-      <c r="OS2" s="12"/>
-      <c r="OT2" s="12"/>
-      <c r="OU2" s="12"/>
-      <c r="OV2" s="12"/>
-      <c r="OW2" s="12"/>
-      <c r="OX2" s="12"/>
-      <c r="OY2" s="12"/>
-      <c r="OZ2" s="12"/>
-      <c r="PA2" s="12"/>
-      <c r="PB2" s="12"/>
-      <c r="PC2" s="12"/>
-      <c r="PD2" s="12"/>
-      <c r="PE2" s="12"/>
-      <c r="PF2" s="12"/>
-      <c r="PG2" s="12"/>
-      <c r="PH2" s="12"/>
-      <c r="PI2" s="12"/>
-      <c r="PJ2" s="12"/>
-      <c r="PK2" s="12"/>
-      <c r="PL2" s="12"/>
-      <c r="PM2" s="12"/>
-      <c r="PN2" s="12"/>
-      <c r="PO2" s="12"/>
-      <c r="PP2" s="12"/>
-      <c r="PQ2" s="12"/>
-      <c r="PR2" s="12"/>
-      <c r="PS2" s="12"/>
-      <c r="PT2" s="12"/>
-      <c r="PU2" s="12"/>
-      <c r="PV2" s="12"/>
-      <c r="PW2" s="12"/>
-      <c r="PX2" s="12"/>
-      <c r="PY2" s="12"/>
-      <c r="PZ2" s="12"/>
-      <c r="QA2" s="12"/>
-      <c r="QB2" s="12"/>
-      <c r="QC2" s="12"/>
-      <c r="QD2" s="12"/>
-      <c r="QE2" s="12"/>
-      <c r="QF2" s="12"/>
-      <c r="QG2" s="12"/>
-      <c r="QH2" s="12"/>
-      <c r="QI2" s="12"/>
-      <c r="QJ2" s="12"/>
-      <c r="QK2" s="12"/>
-      <c r="QL2" s="12"/>
-      <c r="QM2" s="12"/>
-      <c r="QN2" s="12"/>
-      <c r="QO2" s="12"/>
-      <c r="QP2" s="12"/>
-      <c r="QQ2" s="12"/>
-      <c r="QR2" s="12"/>
-      <c r="QS2" s="12"/>
-      <c r="QT2" s="12"/>
-      <c r="QU2" s="12"/>
-      <c r="QV2" s="12"/>
-      <c r="QW2" s="12"/>
-      <c r="QX2" s="12"/>
-      <c r="QY2" s="12"/>
-      <c r="QZ2" s="12"/>
-      <c r="RA2" s="12"/>
-      <c r="RB2" s="12"/>
-      <c r="RC2" s="12"/>
-      <c r="RD2" s="12"/>
-      <c r="RE2" s="12"/>
-      <c r="RF2" s="12"/>
-      <c r="RG2" s="12"/>
-      <c r="RH2" s="12"/>
-      <c r="RI2" s="12"/>
-      <c r="RJ2" s="12"/>
-      <c r="RK2" s="12"/>
-      <c r="RL2" s="12"/>
-      <c r="RM2" s="12"/>
-      <c r="RN2" s="12"/>
-      <c r="RO2" s="12"/>
-      <c r="RP2" s="12"/>
-      <c r="RQ2" s="12"/>
-      <c r="RR2" s="12"/>
-      <c r="RS2" s="12"/>
-      <c r="RT2" s="12"/>
-      <c r="RU2" s="12"/>
-      <c r="RV2" s="12"/>
-      <c r="RW2" s="12"/>
-      <c r="RX2" s="12"/>
-      <c r="RY2" s="12"/>
-      <c r="RZ2" s="12"/>
-      <c r="SA2" s="12"/>
-      <c r="SB2" s="12"/>
-      <c r="SC2" s="12"/>
-      <c r="SD2" s="12"/>
-      <c r="SE2" s="12"/>
-      <c r="SF2" s="12"/>
-      <c r="SG2" s="12"/>
-      <c r="SH2" s="12"/>
-      <c r="SI2" s="12"/>
-      <c r="SJ2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="15"/>
+      <c r="DR2" s="15"/>
+      <c r="DS2" s="15"/>
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15"/>
+      <c r="DY2" s="15"/>
+      <c r="DZ2" s="15"/>
+      <c r="EA2" s="15"/>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="15"/>
+      <c r="ED2" s="15"/>
+      <c r="EE2" s="15"/>
+      <c r="EF2" s="15"/>
+      <c r="EG2" s="15"/>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="15"/>
+      <c r="EM2" s="15"/>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="15"/>
+      <c r="EP2" s="15"/>
+      <c r="EQ2" s="15"/>
+      <c r="ER2" s="15"/>
+      <c r="ES2" s="15"/>
+      <c r="ET2" s="15"/>
+      <c r="EU2" s="15"/>
+      <c r="EV2" s="15"/>
+      <c r="EW2" s="15"/>
+      <c r="EX2" s="15"/>
+      <c r="EY2" s="15"/>
+      <c r="EZ2" s="15"/>
+      <c r="FA2" s="15"/>
+      <c r="FB2" s="15"/>
+      <c r="FC2" s="15"/>
+      <c r="FD2" s="15"/>
+      <c r="FE2" s="15"/>
+      <c r="FF2" s="15"/>
+      <c r="FG2" s="15"/>
+      <c r="FH2" s="15"/>
+      <c r="FI2" s="15"/>
+      <c r="FJ2" s="15"/>
+      <c r="FK2" s="15"/>
+      <c r="FL2" s="15"/>
+      <c r="FM2" s="15"/>
+      <c r="FN2" s="15"/>
+      <c r="FO2" s="15"/>
+      <c r="FP2" s="15"/>
+      <c r="FQ2" s="15"/>
+      <c r="FR2" s="15"/>
+      <c r="FS2" s="15"/>
+      <c r="FT2" s="15"/>
+      <c r="FU2" s="15"/>
+      <c r="FV2" s="15"/>
+      <c r="FW2" s="15"/>
+      <c r="FX2" s="15"/>
+      <c r="FY2" s="15"/>
+      <c r="FZ2" s="15"/>
+      <c r="GA2" s="15"/>
+      <c r="GB2" s="15"/>
+      <c r="GC2" s="15"/>
+      <c r="GD2" s="15"/>
+      <c r="GE2" s="15"/>
+      <c r="GF2" s="15"/>
+      <c r="GG2" s="15"/>
+      <c r="GH2" s="15"/>
+      <c r="GI2" s="15"/>
+      <c r="GJ2" s="15"/>
+      <c r="GK2" s="15"/>
+      <c r="GL2" s="15"/>
+      <c r="GM2" s="15"/>
+      <c r="GN2" s="15"/>
+      <c r="GO2" s="15"/>
+      <c r="GP2" s="15"/>
+      <c r="GQ2" s="15"/>
+      <c r="GR2" s="15"/>
+      <c r="GS2" s="15"/>
+      <c r="GT2" s="15"/>
+      <c r="GU2" s="15"/>
+      <c r="GV2" s="15"/>
+      <c r="GW2" s="15"/>
+      <c r="GX2" s="15"/>
+      <c r="GY2" s="15"/>
+      <c r="GZ2" s="15"/>
+      <c r="HA2" s="15"/>
+      <c r="HB2" s="15"/>
+      <c r="HC2" s="15"/>
+      <c r="HD2" s="15"/>
+      <c r="HE2" s="15"/>
+      <c r="HF2" s="15"/>
+      <c r="HG2" s="15"/>
+      <c r="HH2" s="15"/>
+      <c r="HI2" s="15"/>
+      <c r="HJ2" s="15"/>
+      <c r="HK2" s="15"/>
+      <c r="HL2" s="15"/>
+      <c r="HM2" s="15"/>
+      <c r="HN2" s="15"/>
+      <c r="HO2" s="15"/>
+      <c r="HP2" s="15"/>
+      <c r="HQ2" s="15"/>
+      <c r="HR2" s="15"/>
+      <c r="HS2" s="15"/>
+      <c r="HT2" s="15"/>
+      <c r="HU2" s="15"/>
+      <c r="HV2" s="15"/>
+      <c r="HW2" s="15"/>
+      <c r="HX2" s="15"/>
+      <c r="HY2" s="15"/>
+      <c r="HZ2" s="15"/>
+      <c r="IA2" s="15"/>
+      <c r="IB2" s="15"/>
+      <c r="IC2" s="15"/>
+      <c r="ID2" s="15"/>
+      <c r="IE2" s="15"/>
+      <c r="IF2" s="15"/>
+      <c r="IG2" s="15"/>
+      <c r="IH2" s="15"/>
+      <c r="II2" s="15"/>
+      <c r="IJ2" s="15"/>
+      <c r="IK2" s="15"/>
+      <c r="IL2" s="15"/>
+      <c r="IM2" s="15"/>
+      <c r="IN2" s="15"/>
+      <c r="IO2" s="15"/>
+      <c r="IP2" s="15"/>
+      <c r="IQ2" s="15"/>
+      <c r="IR2" s="15"/>
+      <c r="IS2" s="15"/>
+      <c r="IT2" s="15"/>
+      <c r="IU2" s="15"/>
+      <c r="IV2" s="15"/>
+      <c r="IW2" s="15"/>
+      <c r="IX2" s="15"/>
+      <c r="IY2" s="15"/>
+      <c r="IZ2" s="15"/>
+      <c r="JA2" s="15"/>
+      <c r="JB2" s="15"/>
+      <c r="JC2" s="15"/>
+      <c r="JD2" s="15"/>
+      <c r="JE2" s="15"/>
+      <c r="JF2" s="15"/>
+      <c r="JG2" s="15"/>
+      <c r="JH2" s="15"/>
+      <c r="JI2" s="15"/>
+      <c r="JJ2" s="15"/>
+      <c r="JK2" s="15"/>
+      <c r="JL2" s="15"/>
+      <c r="JM2" s="15"/>
+      <c r="JN2" s="15"/>
+      <c r="JO2" s="15"/>
+      <c r="JP2" s="15"/>
+      <c r="JQ2" s="15"/>
+      <c r="JR2" s="15"/>
+      <c r="JS2" s="15"/>
+      <c r="JT2" s="15"/>
+      <c r="JU2" s="15"/>
+      <c r="JV2" s="15"/>
+      <c r="JW2" s="15"/>
+      <c r="JX2" s="15"/>
+      <c r="JY2" s="15"/>
+      <c r="JZ2" s="15"/>
+      <c r="KA2" s="15"/>
+      <c r="KB2" s="15"/>
+      <c r="KC2" s="15"/>
+      <c r="KD2" s="15"/>
+      <c r="KE2" s="15"/>
+      <c r="KF2" s="15"/>
+      <c r="KG2" s="15"/>
+      <c r="KH2" s="15"/>
+      <c r="KI2" s="15"/>
+      <c r="KJ2" s="15"/>
+      <c r="KK2" s="15"/>
+      <c r="KL2" s="15"/>
+      <c r="KM2" s="15"/>
+      <c r="KN2" s="15"/>
+      <c r="KO2" s="15"/>
+      <c r="KP2" s="15"/>
+      <c r="KQ2" s="15"/>
+      <c r="KR2" s="15"/>
+      <c r="KS2" s="15"/>
+      <c r="KT2" s="15"/>
+      <c r="KU2" s="15"/>
+      <c r="KV2" s="15"/>
+      <c r="KW2" s="15"/>
+      <c r="KX2" s="15"/>
+      <c r="KY2" s="15"/>
+      <c r="KZ2" s="15"/>
+      <c r="LA2" s="15"/>
+      <c r="LB2" s="15"/>
+      <c r="LC2" s="15"/>
+      <c r="LD2" s="15"/>
+      <c r="LE2" s="15"/>
+      <c r="LF2" s="15"/>
+      <c r="LG2" s="15"/>
+      <c r="LH2" s="15"/>
+      <c r="LI2" s="15"/>
+      <c r="LJ2" s="15"/>
+      <c r="LK2" s="15"/>
+      <c r="LL2" s="15"/>
+      <c r="LM2" s="15"/>
+      <c r="LN2" s="15"/>
+      <c r="LO2" s="15"/>
+      <c r="LP2" s="15"/>
+      <c r="LQ2" s="15"/>
+      <c r="LR2" s="15"/>
+      <c r="LS2" s="15"/>
+      <c r="LT2" s="15"/>
+      <c r="LU2" s="15"/>
+      <c r="LV2" s="15"/>
+      <c r="LW2" s="15"/>
+      <c r="LX2" s="15"/>
+      <c r="LY2" s="15"/>
+      <c r="LZ2" s="15"/>
+      <c r="MA2" s="15"/>
+      <c r="MB2" s="15"/>
+      <c r="MC2" s="15"/>
+      <c r="MD2" s="15"/>
+      <c r="ME2" s="15"/>
+      <c r="MF2" s="15"/>
+      <c r="MG2" s="15"/>
+      <c r="MH2" s="15"/>
+      <c r="MI2" s="15"/>
+      <c r="MJ2" s="15"/>
+      <c r="MK2" s="15"/>
+      <c r="ML2" s="15"/>
+      <c r="MM2" s="15"/>
+      <c r="MN2" s="15"/>
+      <c r="MO2" s="15"/>
+      <c r="MP2" s="15"/>
+      <c r="MQ2" s="15"/>
+      <c r="MR2" s="15"/>
+      <c r="MS2" s="15"/>
+      <c r="MT2" s="15"/>
+      <c r="MU2" s="15"/>
+      <c r="MV2" s="15"/>
+      <c r="MW2" s="15"/>
+      <c r="MX2" s="15"/>
+      <c r="MY2" s="15"/>
+      <c r="MZ2" s="15"/>
+      <c r="NA2" s="15"/>
+      <c r="NB2" s="15"/>
+      <c r="NC2" s="15"/>
+      <c r="ND2" s="15"/>
+      <c r="NE2" s="15"/>
+      <c r="NF2" s="15"/>
+      <c r="NG2" s="15"/>
+      <c r="NH2" s="15"/>
+      <c r="NI2" s="15"/>
+      <c r="NJ2" s="15"/>
+      <c r="NK2" s="15"/>
+      <c r="NL2" s="15"/>
+      <c r="NM2" s="15"/>
+      <c r="NN2" s="15"/>
+      <c r="NO2" s="15"/>
+      <c r="NP2" s="15"/>
+      <c r="NQ2" s="15"/>
+      <c r="NR2" s="15"/>
+      <c r="NS2" s="15"/>
+      <c r="NT2" s="15"/>
+      <c r="NU2" s="15"/>
+      <c r="NV2" s="15"/>
+      <c r="NW2" s="15"/>
+      <c r="NX2" s="15"/>
+      <c r="NY2" s="15"/>
+      <c r="NZ2" s="15"/>
+      <c r="OA2" s="15"/>
+      <c r="OB2" s="15"/>
+      <c r="OC2" s="15"/>
+      <c r="OD2" s="15"/>
+      <c r="OE2" s="15"/>
+      <c r="OF2" s="15"/>
+      <c r="OG2" s="15"/>
+      <c r="OH2" s="15"/>
+      <c r="OI2" s="15"/>
+      <c r="OJ2" s="15"/>
+      <c r="OK2" s="15"/>
+      <c r="OL2" s="15"/>
+      <c r="OM2" s="15"/>
+      <c r="ON2" s="15"/>
+      <c r="OO2" s="15"/>
+      <c r="OP2" s="15"/>
+      <c r="OQ2" s="15"/>
+      <c r="OR2" s="15"/>
+      <c r="OS2" s="15"/>
+      <c r="OT2" s="15"/>
+      <c r="OU2" s="15"/>
+      <c r="OV2" s="15"/>
+      <c r="OW2" s="15"/>
+      <c r="OX2" s="15"/>
+      <c r="OY2" s="15"/>
+      <c r="OZ2" s="15"/>
+      <c r="PA2" s="15"/>
+      <c r="PB2" s="15"/>
+      <c r="PC2" s="15"/>
+      <c r="PD2" s="15"/>
+      <c r="PE2" s="15"/>
+      <c r="PF2" s="15"/>
+      <c r="PG2" s="15"/>
+      <c r="PH2" s="15"/>
+      <c r="PI2" s="15"/>
+      <c r="PJ2" s="15"/>
+      <c r="PK2" s="15"/>
+      <c r="PL2" s="15"/>
+      <c r="PM2" s="15"/>
+      <c r="PN2" s="15"/>
+      <c r="PO2" s="15"/>
+      <c r="PP2" s="15"/>
+      <c r="PQ2" s="15"/>
+      <c r="PR2" s="15"/>
+      <c r="PS2" s="15"/>
+      <c r="PT2" s="15"/>
+      <c r="PU2" s="15"/>
+      <c r="PV2" s="15"/>
+      <c r="PW2" s="15"/>
+      <c r="PX2" s="15"/>
+      <c r="PY2" s="15"/>
+      <c r="PZ2" s="15"/>
+      <c r="QA2" s="15"/>
+      <c r="QB2" s="15"/>
+      <c r="QC2" s="15"/>
+      <c r="QD2" s="15"/>
+      <c r="QE2" s="15"/>
+      <c r="QF2" s="15"/>
+      <c r="QG2" s="15"/>
+      <c r="QH2" s="15"/>
+      <c r="QI2" s="15"/>
+      <c r="QJ2" s="15"/>
+      <c r="QK2" s="15"/>
+      <c r="QL2" s="15"/>
+      <c r="QM2" s="15"/>
+      <c r="QN2" s="15"/>
+      <c r="QO2" s="15"/>
+      <c r="QP2" s="15"/>
+      <c r="QQ2" s="15"/>
+      <c r="QR2" s="15"/>
+      <c r="QS2" s="15"/>
+      <c r="QT2" s="15"/>
+      <c r="QU2" s="15"/>
+      <c r="QV2" s="15"/>
+      <c r="QW2" s="15"/>
+      <c r="QX2" s="15"/>
+      <c r="QY2" s="15"/>
+      <c r="QZ2" s="15"/>
+      <c r="RA2" s="15"/>
+      <c r="RB2" s="15"/>
+      <c r="RC2" s="15"/>
+      <c r="RD2" s="15"/>
+      <c r="RE2" s="15"/>
+      <c r="RF2" s="15"/>
+      <c r="RG2" s="15"/>
+      <c r="RH2" s="15"/>
+      <c r="RI2" s="15"/>
+      <c r="RJ2" s="15"/>
+      <c r="RK2" s="15"/>
+      <c r="RL2" s="15"/>
+      <c r="RM2" s="15"/>
+      <c r="RN2" s="15"/>
+      <c r="RO2" s="15"/>
+      <c r="RP2" s="15"/>
+      <c r="RQ2" s="15"/>
+      <c r="RR2" s="15"/>
+      <c r="RS2" s="15"/>
+      <c r="RT2" s="15"/>
+      <c r="RU2" s="15"/>
+      <c r="RV2" s="15"/>
+      <c r="RW2" s="15"/>
+      <c r="RX2" s="15"/>
+      <c r="RY2" s="15"/>
+      <c r="RZ2" s="15"/>
+      <c r="SA2" s="15"/>
+      <c r="SB2" s="15"/>
+      <c r="SC2" s="15"/>
+      <c r="SD2" s="15"/>
+      <c r="SE2" s="15"/>
+      <c r="SF2" s="15"/>
+      <c r="SG2" s="15"/>
+      <c r="SH2" s="15"/>
+      <c r="SI2" s="15"/>
+      <c r="SJ2" s="16"/>
     </row>
     <row r="3" spans="3:504" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -1966,10 +2020,14 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2468,7 +2526,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2478,10 +2536,14 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2980,7 +3042,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="15"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +4548,7 @@
       </c>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -4496,8 +4558,12 @@
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -4996,7 +5062,7 @@
       <c r="SJ6" s="5"/>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -5006,8 +5072,12 @@
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -5506,18 +5576,22 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="15"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -6016,7 +6090,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="15"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
@@ -7522,7 +7596,7 @@
       </c>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
@@ -7532,8 +7606,12 @@
       <c r="F10" s="5">
         <v>1499</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5">
+        <v>399</v>
+      </c>
+      <c r="H10" s="5">
+        <v>799</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -8032,7 +8110,7 @@
       <c r="SJ10" s="5"/>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="16"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -9538,7 +9616,7 @@
       </c>
     </row>
     <row r="12" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -10046,7 +10124,7 @@
       <c r="SJ12" s="5"/>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
@@ -10552,7 +10630,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="16"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
@@ -11058,7 +11136,7 @@
       <c r="SJ14" s="5"/>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -11070,8 +11148,12 @@
       <c r="F15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -11570,16 +11652,18 @@
       <c r="SJ15" s="5"/>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -12078,7 +12162,7 @@
       <c r="SJ16" s="5"/>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="16"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
@@ -12088,8 +12172,12 @@
       <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -12588,7 +12676,7 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -13096,7 +13184,7 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -13604,7 +13692,7 @@
       <c r="SJ19" s="5"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="16"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4" t="s">
         <v>33</v>
       </c>
@@ -14110,7 +14198,7 @@
       <c r="SJ20" s="5"/>
     </row>
     <row r="21" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -14618,7 +14706,7 @@
       <c r="SJ21" s="7"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="14"/>
+      <c r="C22" s="11"/>
       <c r="D22" t="s">
         <v>35</v>
       </c>
@@ -14628,8 +14716,12 @@
       <c r="F22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -15128,7 +15220,7 @@
       <c r="SJ22" s="8"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="15"/>
+      <c r="C23" s="13"/>
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -15138,8 +15230,12 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -15638,7 +15734,7 @@
       <c r="SJ23" s="8"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="15"/>
+      <c r="C24" s="13"/>
       <c r="D24" t="s">
         <v>39</v>
       </c>
@@ -15646,10 +15742,14 @@
         <v>40</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -16148,7 +16248,7 @@
       <c r="SJ24" s="8"/>
     </row>
     <row r="25" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="16"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6" t="s">
         <v>41</v>
       </c>
@@ -16156,10 +16256,14 @@
         <v>42</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -16658,20 +16762,20 @@
       <c r="SJ25" s="9"/>
     </row>
     <row r="26" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -17170,14 +17274,18 @@
       <c r="SJ26" s="8"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="15"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -17676,9 +17784,9 @@
       <c r="SJ27" s="8"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="15"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -18182,9 +18290,9 @@
       <c r="SJ28" s="8"/>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="15"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -18688,9 +18796,9 @@
       <c r="SJ29" s="8"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="15"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -19194,9 +19302,9 @@
       <c r="SJ30" s="8"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="15"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -19700,9 +19808,9 @@
       <c r="SJ31" s="8"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="15"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -20206,9 +20314,9 @@
       <c r="SJ32" s="8"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="15"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -20712,9 +20820,9 @@
       <c r="SJ33" s="8"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="15"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -21218,9 +21326,9 @@
       <c r="SJ34" s="8"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="16"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -21784,10 +21892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F5"/>
+      <selection activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21802,39 +21910,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -21842,19 +21950,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>599</v>
+        <v>299</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -21862,19 +21970,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E4">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -21882,19 +21990,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E5">
-        <v>1999</v>
+        <v>1499</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21902,19 +22010,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>199</v>
+        <v>2499</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21922,19 +22030,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>299</v>
+        <v>4999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -21942,19 +22050,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>499</v>
+        <v>199</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -21962,19 +22070,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>1499</v>
+        <v>199</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21982,19 +22090,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E10">
-        <v>2499</v>
+        <v>199</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22002,19 +22110,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E11">
-        <v>4999</v>
+        <v>199</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22022,7 +22130,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
@@ -22037,12 +22145,12 @@
         <v>199</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
@@ -22057,104 +22165,104 @@
         <v>199</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E14">
-        <v>199</v>
+        <v>1500</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E15">
-        <v>199</v>
+        <v>4500</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>199</v>
+        <v>7500</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E17">
-        <v>199</v>
+        <v>15000</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E18">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -22162,19 +22270,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -22182,19 +22290,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E20">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -22202,21 +22310,101 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E21">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <v>12000</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>36000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24">
+        <v>60000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25">
+        <v>120000</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
     </row>

--- a/Element Profiles/IDS Keypad-Element_Profile.xlsx
+++ b/Element Profiles/IDS Keypad-Element_Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A614C-37AE-0D4D-955D-8B71F5D95697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6937298-7FEA-8740-92E9-A8B1A0225F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="150">
   <si>
     <t>Export date: Apr 04, 2023</t>
   </si>
@@ -462,6 +462,27 @@
   </si>
   <si>
     <t>BK21 Product Page</t>
+  </si>
+  <si>
+    <t>BK22 Alarm Keypad + Wireless Hub</t>
+  </si>
+  <si>
+    <t>https://docs.verkada.com/docs/BK22-alarm-keypad-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>BK22 Datasheet</t>
+  </si>
+  <si>
+    <t>https://www.verkada.com/alarms/keypad/</t>
+  </si>
+  <si>
+    <t>Alarms Keypads Product Page</t>
+  </si>
+  <si>
+    <t>Addressable Bus</t>
+  </si>
+  <si>
+    <t>BK22-HW</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1004,7 @@
   <dimension ref="C1:SJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2049,9 @@
       <c r="H3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2544,7 +2567,9 @@
       <c r="H4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -4564,7 +4589,9 @@
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -5078,7 +5105,9 @@
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -5592,7 +5621,9 @@
       <c r="H8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -7612,7 +7643,9 @@
       <c r="H10" s="5">
         <v>799</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>399</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -11154,7 +11187,9 @@
       <c r="H15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -11664,7 +11699,9 @@
       <c r="H16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -12178,7 +12215,9 @@
       <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -14705,7 +14744,7 @@
       <c r="SI21" s="7"/>
       <c r="SJ21" s="7"/>
     </row>
-    <row r="22" spans="3:504" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:504" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
       <c r="D22" t="s">
         <v>35</v>
@@ -14722,7 +14761,9 @@
       <c r="H22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -15236,7 +15277,9 @@
       <c r="H23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -15750,7 +15793,9 @@
       <c r="H24" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -16264,7 +16309,9 @@
       <c r="H25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
